--- a/incl/Competencies and skills assessment.XLSX
+++ b/incl/Competencies and skills assessment.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -1433,10 +1433,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A86" sqref="A7:A86"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1523,10 +1523,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="39"/>
-      <c r="D8" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C9)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
@@ -1536,10 +1533,7 @@
         <v>56</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C10)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
@@ -1549,10 +1543,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C11)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
@@ -1562,10 +1553,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C12)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
@@ -1575,10 +1563,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="39"/>
-      <c r="D12" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C13)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
@@ -1588,10 +1573,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C14)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
@@ -1601,10 +1583,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="39"/>
-      <c r="D14" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C15)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
@@ -1614,10 +1593,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="39"/>
-      <c r="D15" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C16)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
@@ -1627,10 +1603,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="39"/>
-      <c r="D16" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C17)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
@@ -1640,10 +1613,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="39"/>
-      <c r="D17" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C18)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
@@ -1653,10 +1623,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="39"/>
-      <c r="D18" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C19)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
@@ -1666,10 +1633,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="39"/>
-      <c r="D19" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C20)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
@@ -1679,10 +1643,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="39"/>
-      <c r="D20" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C21)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
@@ -1692,10 +1653,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="39"/>
-      <c r="D21" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C22)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
@@ -1705,10 +1663,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="39"/>
-      <c r="D22" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C23)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
@@ -1718,10 +1673,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="39"/>
-      <c r="D23" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C24)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
@@ -1731,10 +1683,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C25)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
@@ -1744,10 +1693,7 @@
         <v>83</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C26)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
@@ -1757,10 +1703,7 @@
         <v>84</v>
       </c>
       <c r="C26" s="39"/>
-      <c r="D26" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C27)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
@@ -1770,10 +1713,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="39"/>
-      <c r="D27" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C28)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
@@ -1783,10 +1723,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="39"/>
-      <c r="D28" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C29)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
@@ -1796,10 +1733,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C30)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
@@ -1809,10 +1743,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="39"/>
-      <c r="D30" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C31)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
@@ -1822,10 +1753,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="39"/>
-      <c r="D31" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C32)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
@@ -1835,10 +1763,7 @@
         <v>85</v>
       </c>
       <c r="C32" s="39"/>
-      <c r="D32" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C33)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
@@ -1848,10 +1773,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="39"/>
-      <c r="D33" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C34)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
@@ -1861,10 +1783,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="39"/>
-      <c r="D34" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C35)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
@@ -1874,10 +1793,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="39"/>
-      <c r="D35" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C36)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D35" s="40"/>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
@@ -1887,10 +1803,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="39"/>
-      <c r="D36" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C37)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
@@ -1900,10 +1813,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="39"/>
-      <c r="D37" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C38)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
@@ -1913,10 +1823,7 @@
         <v>86</v>
       </c>
       <c r="C38" s="39"/>
-      <c r="D38" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C39)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
@@ -1926,10 +1833,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="39"/>
-      <c r="D39" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C40)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
@@ -1939,10 +1843,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="39"/>
-      <c r="D40" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C41)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D40" s="40"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
@@ -1952,10 +1853,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="39"/>
-      <c r="D41" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C42)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
@@ -1965,10 +1863,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="39"/>
-      <c r="D42" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C43)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
@@ -1978,10 +1873,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="39"/>
-      <c r="D43" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C44)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
@@ -1991,10 +1883,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="39"/>
-      <c r="D44" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C45)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
@@ -2004,10 +1893,7 @@
         <v>88</v>
       </c>
       <c r="C45" s="39"/>
-      <c r="D45" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C46)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
@@ -2017,10 +1903,7 @@
         <v>67</v>
       </c>
       <c r="C46" s="39"/>
-      <c r="D46" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C47)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D46" s="40"/>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
@@ -2030,10 +1913,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="39"/>
-      <c r="D47" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C48)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D47" s="40"/>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="40" t="s">
@@ -2043,10 +1923,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="39"/>
-      <c r="D48" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C49)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="40" t="s">
@@ -2056,10 +1933,7 @@
         <v>27</v>
       </c>
       <c r="C49" s="39"/>
-      <c r="D49" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C50)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D49" s="40"/>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="40" t="s">
@@ -2069,10 +1943,7 @@
         <v>55</v>
       </c>
       <c r="C50" s="39"/>
-      <c r="D50" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C51)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D50" s="40"/>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
@@ -2082,10 +1953,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="39"/>
-      <c r="D51" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C52)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D51" s="40"/>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="s">
@@ -2095,10 +1963,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="39"/>
-      <c r="D52" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C53)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D52" s="40"/>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="40" t="s">
@@ -2108,10 +1973,7 @@
         <v>66</v>
       </c>
       <c r="C53" s="39"/>
-      <c r="D53" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C54)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D53" s="40"/>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="40" t="s">
@@ -2121,10 +1983,7 @@
         <v>30</v>
       </c>
       <c r="C54" s="39"/>
-      <c r="D54" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C55)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D54" s="40"/>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="40" t="s">
@@ -2134,10 +1993,7 @@
         <v>32</v>
       </c>
       <c r="C55" s="39"/>
-      <c r="D55" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C56)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
@@ -2147,10 +2003,7 @@
         <v>33</v>
       </c>
       <c r="C56" s="39"/>
-      <c r="D56" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C57)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="40" t="s">
@@ -2160,10 +2013,7 @@
         <v>34</v>
       </c>
       <c r="C57" s="39"/>
-      <c r="D57" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C58)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D57" s="40"/>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="40" t="s">
@@ -2173,10 +2023,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="39"/>
-      <c r="D58" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C59)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D58" s="40"/>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="40" t="s">
@@ -2186,10 +2033,7 @@
         <v>37</v>
       </c>
       <c r="C59" s="39"/>
-      <c r="D59" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C60)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="40" t="s">
@@ -2199,10 +2043,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="39"/>
-      <c r="D60" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C61)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D60" s="40"/>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="40" t="s">
@@ -2212,10 +2053,7 @@
         <v>39</v>
       </c>
       <c r="C61" s="39"/>
-      <c r="D61" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C62)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D61" s="40"/>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="40" t="s">
@@ -2225,10 +2063,7 @@
         <v>52</v>
       </c>
       <c r="C62" s="39"/>
-      <c r="D62" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C63)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D62" s="40"/>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="40" t="s">
@@ -2238,10 +2073,7 @@
         <v>68</v>
       </c>
       <c r="C63" s="39"/>
-      <c r="D63" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C64)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D63" s="40"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="40" t="s">
@@ -2251,10 +2083,7 @@
         <v>42</v>
       </c>
       <c r="C64" s="39"/>
-      <c r="D64" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C65)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="40" t="s">
@@ -2264,10 +2093,7 @@
         <v>41</v>
       </c>
       <c r="C65" s="39"/>
-      <c r="D65" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C66)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D65" s="40"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
@@ -2277,10 +2103,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="39"/>
-      <c r="D66" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C67)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D66" s="40"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="40" t="s">
@@ -2290,10 +2113,7 @@
         <v>89</v>
       </c>
       <c r="C67" s="39"/>
-      <c r="D67" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C68)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D67" s="40"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="40" t="s">
@@ -2303,10 +2123,7 @@
         <v>54</v>
       </c>
       <c r="C68" s="39"/>
-      <c r="D68" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C69)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D68" s="40"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="40" t="s">
@@ -2316,10 +2133,7 @@
         <v>48</v>
       </c>
       <c r="C69" s="39"/>
-      <c r="D69" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C70)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D69" s="40"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="40" t="s">
@@ -2329,10 +2143,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="39"/>
-      <c r="D70" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C71)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D70" s="40"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="40" t="s">
@@ -2342,10 +2153,7 @@
         <v>45</v>
       </c>
       <c r="C71" s="39"/>
-      <c r="D71" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C72)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D71" s="40"/>
     </row>
     <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A72" s="40" t="s">
@@ -2355,10 +2163,7 @@
         <v>46</v>
       </c>
       <c r="C72" s="39"/>
-      <c r="D72" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C73)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D72" s="40"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="40" t="s">
@@ -2368,10 +2173,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="39"/>
-      <c r="D73" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C74)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D73" s="40"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="40" t="s">
@@ -2381,10 +2183,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="39"/>
-      <c r="D74" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C75)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D74" s="40"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="40" t="s">
@@ -2394,10 +2193,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="39"/>
-      <c r="D75" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C76)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D75" s="40"/>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="40" t="s">
@@ -2407,10 +2203,7 @@
         <v>90</v>
       </c>
       <c r="C76" s="39"/>
-      <c r="D76" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C77)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D76" s="40"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="40" t="s">
@@ -2420,10 +2213,7 @@
         <v>91</v>
       </c>
       <c r="C77" s="39"/>
-      <c r="D77" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C78)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D77" s="40"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="40" t="s">
@@ -2433,10 +2223,7 @@
         <v>74</v>
       </c>
       <c r="C78" s="39"/>
-      <c r="D78" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C79)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D78" s="40"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="40" t="s">
@@ -2446,10 +2233,7 @@
         <v>75</v>
       </c>
       <c r="C79" s="39"/>
-      <c r="D79" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C80)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D79" s="40"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="40" t="s">
@@ -2459,10 +2243,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="39"/>
-      <c r="D80" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C81)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D80" s="40"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="40" t="s">
@@ -2472,10 +2253,7 @@
         <v>77</v>
       </c>
       <c r="C81" s="39"/>
-      <c r="D81" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C82)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D81" s="40"/>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="40" t="s">
@@ -2485,10 +2263,7 @@
         <v>108</v>
       </c>
       <c r="C82" s="39"/>
-      <c r="D82" s="40" t="e">
-        <f>AVERAGE('Employee:Employee 12'!C83)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D82" s="40"/>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="40" t="s">
@@ -2562,130 +2337,91 @@
       <c r="A91" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="37" t="e">
-        <f>AVERAGE(D6:D10)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B91" s="37"/>
       <c r="C91" s="37"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="37" t="e">
-        <f>AVERAGE(D11:D17)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B92" s="37"/>
       <c r="C92" s="37"/>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="37" t="e">
-        <f>AVERAGE(D18:D26)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B93" s="37"/>
       <c r="C93" s="37"/>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="37" t="e">
-        <f>AVERAGE(D27:D33)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B94" s="37"/>
       <c r="C94" s="37"/>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="37" t="e">
-        <f>AVERAGE(D34:D39)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B95" s="37"/>
       <c r="C95" s="37"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="37" t="e">
-        <f>AVERAGE(D40:D45)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B96" s="37"/>
       <c r="C96" s="37"/>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="37" t="e">
-        <f>AVERAGE(D46:D54)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B97" s="37"/>
       <c r="C97" s="37"/>
     </row>
     <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="37" t="e">
-        <f>AVERAGE(D55:D58)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B98" s="37"/>
       <c r="C98" s="37"/>
     </row>
     <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B99" s="37" t="e">
-        <f>AVERAGE(D59:D63)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B99" s="37"/>
       <c r="C99" s="37"/>
     </row>
     <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="37" t="e">
-        <f>AVERAGE(D64:D69)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B100" s="37"/>
       <c r="C100" s="37"/>
     </row>
     <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="37" t="e">
-        <f>AVERAGE(D70:D77)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B101" s="37"/>
       <c r="C101" s="37"/>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B102" s="37" t="e">
-        <f>AVERAGE(D78:D82)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B102" s="37"/>
       <c r="C102" s="37"/>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B103" s="37" t="e">
-        <f>AVERAGE(D83:D86)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B103" s="37"/>
       <c r="C103" s="37"/>
     </row>
   </sheetData>
@@ -2701,9 +2437,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D82" evalError="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="2">
     <tablePart r:id="rId3"/>
@@ -2716,10 +2449,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="Q113" sqref="Q113"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,118 +3256,79 @@
       <c r="A92" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="4" t="e">
-        <f>AVERAGE(C7:C11)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B104" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3656,8 +3350,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4480,7 +4174,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4489,7 +4183,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4498,7 +4192,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4507,7 +4201,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4516,7 +4210,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4525,7 +4219,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4534,7 +4228,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4543,7 +4237,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4552,7 +4246,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4561,7 +4255,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4570,7 +4264,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4594,8 +4288,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:C86"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,7 +5103,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5418,7 +5112,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5427,7 +5121,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5436,7 +5130,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5445,7 +5139,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5454,7 +5148,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5463,7 +5157,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5472,7 +5166,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5481,7 +5175,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5490,7 +5184,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5499,7 +5193,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5508,7 +5202,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5532,8 +5226,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:C86"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6347,7 +6041,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6356,7 +6050,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6365,7 +6059,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6374,7 +6068,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6383,7 +6077,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6392,7 +6086,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6401,7 +6095,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6410,7 +6104,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6419,7 +6113,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6428,7 +6122,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6437,7 +6131,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6446,7 +6140,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6470,9 +6164,9 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B91" sqref="B91"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6549,7 +6243,7 @@
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -6567,7 +6261,7 @@
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -6576,7 +6270,7 @@
       <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -6585,7 +6279,7 @@
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -6603,7 +6297,7 @@
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -6621,7 +6315,7 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -6639,7 +6333,7 @@
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -6657,7 +6351,7 @@
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -6666,7 +6360,7 @@
       <c r="B22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
@@ -6675,7 +6369,7 @@
       <c r="B23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -6684,7 +6378,7 @@
       <c r="B24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -6693,7 +6387,7 @@
       <c r="B25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
@@ -6702,7 +6396,7 @@
       <c r="B26" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -6711,7 +6405,7 @@
       <c r="B27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -6720,7 +6414,7 @@
       <c r="B28" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
@@ -6729,7 +6423,7 @@
       <c r="B29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
@@ -6738,7 +6432,7 @@
       <c r="B30" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -6747,7 +6441,7 @@
       <c r="B31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
@@ -6756,7 +6450,7 @@
       <c r="B32" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
@@ -6765,7 +6459,7 @@
       <c r="B33" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
@@ -6774,7 +6468,7 @@
       <c r="B34" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
@@ -6783,7 +6477,7 @@
       <c r="B35" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
@@ -6792,7 +6486,7 @@
       <c r="B36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
@@ -6801,7 +6495,7 @@
       <c r="B37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
@@ -6810,7 +6504,7 @@
       <c r="B38" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
@@ -6819,7 +6513,7 @@
       <c r="B39" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
@@ -6828,7 +6522,7 @@
       <c r="B40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
@@ -6837,7 +6531,7 @@
       <c r="B41" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
@@ -6846,7 +6540,7 @@
       <c r="B42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
@@ -6855,7 +6549,7 @@
       <c r="B43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
@@ -6864,7 +6558,7 @@
       <c r="B44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="12"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
@@ -6873,7 +6567,7 @@
       <c r="B45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
@@ -6882,7 +6576,7 @@
       <c r="B46" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="16"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
@@ -6891,7 +6585,7 @@
       <c r="B47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
@@ -6900,7 +6594,7 @@
       <c r="B48" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="12"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
@@ -6909,7 +6603,7 @@
       <c r="B49" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
@@ -6918,7 +6612,7 @@
       <c r="B50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="12"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
@@ -6927,7 +6621,7 @@
       <c r="B51" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
@@ -6936,7 +6630,7 @@
       <c r="B52" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="12"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
@@ -6945,7 +6639,7 @@
       <c r="B53" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
@@ -6954,7 +6648,7 @@
       <c r="B54" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="12"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
@@ -6963,7 +6657,7 @@
       <c r="B55" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
@@ -6972,7 +6666,7 @@
       <c r="B56" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="12"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
@@ -6981,7 +6675,7 @@
       <c r="B57" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
@@ -6990,7 +6684,7 @@
       <c r="B58" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="12"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
@@ -6999,7 +6693,7 @@
       <c r="B59" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
@@ -7008,7 +6702,7 @@
       <c r="B60" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="12"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
@@ -7017,7 +6711,7 @@
       <c r="B61" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="14"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
@@ -7026,7 +6720,7 @@
       <c r="B62" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
@@ -7035,7 +6729,7 @@
       <c r="B63" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
@@ -7044,7 +6738,7 @@
       <c r="B64" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="12"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
@@ -7053,7 +6747,7 @@
       <c r="B65" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="14"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
@@ -7062,7 +6756,7 @@
       <c r="B66" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="12"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
@@ -7071,7 +6765,7 @@
       <c r="B67" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="14"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
@@ -7080,7 +6774,7 @@
       <c r="B68" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="12"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
@@ -7089,7 +6783,7 @@
       <c r="B69" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="14"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
@@ -7098,7 +6792,7 @@
       <c r="B70" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="12"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
@@ -7107,7 +6801,7 @@
       <c r="B71" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="14"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
@@ -7116,7 +6810,7 @@
       <c r="B72" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="12"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
@@ -7125,7 +6819,7 @@
       <c r="B73" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="14"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
@@ -7134,7 +6828,7 @@
       <c r="B74" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="12"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
@@ -7143,7 +6837,7 @@
       <c r="B75" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
@@ -7152,7 +6846,7 @@
       <c r="B76" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="12"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
@@ -7161,7 +6855,7 @@
       <c r="B77" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="14"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
@@ -7170,7 +6864,7 @@
       <c r="B78" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="12"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
@@ -7179,7 +6873,7 @@
       <c r="B79" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
@@ -7188,7 +6882,7 @@
       <c r="B80" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="16"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
@@ -7197,7 +6891,7 @@
       <c r="B81" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
@@ -7206,7 +6900,7 @@
       <c r="B82" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="16"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
@@ -7215,7 +6909,7 @@
       <c r="B83" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="14"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
@@ -7224,7 +6918,7 @@
       <c r="B84" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="16"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
@@ -7233,7 +6927,7 @@
       <c r="B85" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="14"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
@@ -7242,7 +6936,7 @@
       <c r="B86" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="14"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
@@ -7251,7 +6945,7 @@
       <c r="B87" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="16"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7282,109 +6976,73 @@
       <c r="A93" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B104" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -7407,8 +7065,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8225,7 +7883,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8234,7 +7892,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8243,7 +7901,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8252,7 +7910,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8261,7 +7919,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8270,7 +7928,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8279,7 +7937,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8288,7 +7946,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8297,7 +7955,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8306,7 +7964,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8315,7 +7973,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8324,7 +7982,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8348,8 +8006,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9163,7 +8821,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9172,7 +8830,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9181,7 +8839,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9190,7 +8848,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9199,7 +8857,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9208,7 +8866,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9217,7 +8875,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9226,7 +8884,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9235,7 +8893,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9244,7 +8902,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9253,7 +8911,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9262,7 +8920,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9286,8 +8944,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10101,7 +9759,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10110,7 +9768,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10119,7 +9777,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10128,7 +9786,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10137,7 +9795,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10146,7 +9804,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10155,7 +9813,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10164,7 +9822,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10173,7 +9831,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10182,7 +9840,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10191,7 +9849,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10200,7 +9858,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10224,8 +9882,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11039,7 +10697,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11048,7 +10706,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11057,7 +10715,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11066,7 +10724,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11075,7 +10733,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11084,7 +10742,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11093,7 +10751,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11102,7 +10760,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11111,7 +10769,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11120,7 +10778,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11129,7 +10787,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11138,7 +10796,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11162,8 +10820,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11977,7 +11635,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11986,7 +11644,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11995,7 +11653,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12004,7 +11662,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12013,7 +11671,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12022,7 +11680,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12031,7 +11689,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12040,7 +11698,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12049,7 +11707,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12058,7 +11716,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12067,7 +11725,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12076,7 +11734,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12100,8 +11758,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12915,7 +12573,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12924,7 +12582,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12933,7 +12591,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12942,7 +12600,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12951,7 +12609,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12960,7 +12618,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12969,7 +12627,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12978,7 +12636,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12987,7 +12645,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12996,7 +12654,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13005,7 +12663,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13014,7 +12672,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13038,8 +12696,8 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A86" sqref="A86:C86"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <selection activeCell="B92" sqref="B92:B104"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13853,7 +13511,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="e">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" ref="B93:B104" si="0">AVERAGE(C8:C12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13862,7 +13520,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="4" t="e">
-        <f>AVERAGE(C19:C27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13871,7 +13529,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="e">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13880,7 +13538,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="e">
-        <f>AVERAGE(C35:C40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13889,7 +13547,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="e">
-        <f>AVERAGE(C41:C46)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13898,7 +13556,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="e">
-        <f>AVERAGE(C47:C55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13907,7 +13565,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="e">
-        <f>AVERAGE(C56:C59)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13916,7 +13574,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="4" t="e">
-        <f>AVERAGE(C60:C64)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13925,7 +13583,7 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="e">
-        <f>AVERAGE(C65:C70)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13934,7 +13592,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="e">
-        <f>AVERAGE(C71:C78)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13943,7 +13601,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="e">
-        <f>AVERAGE(C79:C83)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13952,7 +13610,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="e">
-        <f>AVERAGE(C84:C87)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
